--- a/doc/小组log日志/201708044118yyb.xlsx
+++ b/doc/小组log日志/201708044118yyb.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA\workspace\doc\小组log日志\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993C682B-AE8D-4B56-8AF6-8BAA40AFF981}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="8115" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="娄梦月" sheetId="2" r:id="rId1"/>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="90">
   <si>
     <t>日期时间</t>
   </si>
@@ -305,18 +311,20 @@
   <si>
     <t>改写测试类</t>
   </si>
+  <si>
+    <t>2019/5/27 13:30--16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,345 +333,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -671,255 +370,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -935,62 +392,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1248,26 +667,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="26.625" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1275,7 +694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1283,7 +702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1292,27 +711,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1320,7 +738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1328,7 +746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1337,27 +755,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1365,7 +782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1374,27 +791,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1402,7 +818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1411,27 +827,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="37.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1439,7 +854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1448,27 +863,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="56.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="45.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="56.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1476,7 +890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1484,7 +898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1492,7 +906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1501,27 +915,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="33.21875" style="1" customWidth="1"/>
     <col min="2" max="2" width="38" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1529,7 +942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1537,7 +950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1545,7 +958,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1554,27 +967,26 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.21875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1582,7 +994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1590,7 +1002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -1598,7 +1010,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -1606,7 +1018,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1614,7 +1026,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -1622,7 +1034,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -1630,7 +1042,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -1638,7 +1050,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -1646,7 +1058,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -1654,7 +1066,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
@@ -1662,7 +1074,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
@@ -1670,7 +1082,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
@@ -1678,7 +1090,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
@@ -1686,7 +1098,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
@@ -1694,7 +1106,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
@@ -1702,7 +1114,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
@@ -1710,7 +1122,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>43</v>
       </c>
@@ -1718,7 +1130,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>45</v>
       </c>
@@ -1726,7 +1138,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>47</v>
       </c>
@@ -1734,7 +1146,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>49</v>
       </c>
@@ -1742,7 +1154,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>51</v>
       </c>
@@ -1750,7 +1162,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>53</v>
       </c>
@@ -1758,7 +1170,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>54</v>
       </c>
@@ -1766,7 +1178,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>56</v>
       </c>
@@ -1774,7 +1186,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>58</v>
       </c>
@@ -1782,7 +1194,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>60</v>
       </c>
@@ -1790,7 +1202,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>62</v>
       </c>
@@ -1798,7 +1210,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>64</v>
       </c>
@@ -1806,7 +1218,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>66</v>
       </c>
@@ -1814,7 +1226,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>68</v>
       </c>
@@ -1822,7 +1234,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>70</v>
       </c>
@@ -1830,7 +1242,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>72</v>
       </c>
@@ -1838,7 +1250,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>74</v>
       </c>
@@ -1846,7 +1258,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>76</v>
       </c>
@@ -1854,7 +1266,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>78</v>
       </c>
@@ -1862,7 +1274,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>80</v>
       </c>
@@ -1870,7 +1282,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>82</v>
       </c>
@@ -1878,7 +1290,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>84</v>
       </c>
@@ -1886,7 +1298,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>85</v>
       </c>
@@ -1894,7 +1306,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>86</v>
       </c>
@@ -1902,9 +1314,17 @@
         <v>87</v>
       </c>
     </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/小组log日志/201708044118yyb.xlsx
+++ b/doc/小组log日志/201708044118yyb.xlsx
@@ -8,26 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA\workspace\doc\小组log日志\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993C682B-AE8D-4B56-8AF6-8BAA40AFF981}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DD83EC-806B-4102-B65D-BD134FF45B05}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="娄梦月" sheetId="2" r:id="rId1"/>
-    <sheet name="宋明硕" sheetId="3" r:id="rId2"/>
-    <sheet name="缑曼曼" sheetId="5" r:id="rId3"/>
-    <sheet name="张晓芳" sheetId="4" r:id="rId4"/>
-    <sheet name="肖森" sheetId="7" r:id="rId5"/>
-    <sheet name="张奔" sheetId="1" r:id="rId6"/>
-    <sheet name="谢国欣" sheetId="8" r:id="rId7"/>
-    <sheet name="杨亚斌" sheetId="6" r:id="rId8"/>
+    <sheet name="杨亚斌" sheetId="6" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
   <si>
     <t>日期时间</t>
   </si>
@@ -41,34 +34,7 @@
     <t>小组讨论项目实例题模块</t>
   </si>
   <si>
-    <t>2019/4/3 9:00--12:00</t>
-  </si>
-  <si>
-    <t>安装配置数据库</t>
-  </si>
-  <si>
-    <t>数据库的配置及简单操作</t>
-  </si>
-  <si>
-    <t>2019/4/4 21:30--23:30</t>
-  </si>
-  <si>
-    <t>Mysql远程连接</t>
-  </si>
-  <si>
-    <t>2019/4/5 20:30--22:30</t>
-  </si>
-  <si>
-    <t>了解类加载机制尝试了一下不同于域网下的数据库远程连接</t>
-  </si>
-  <si>
-    <t>2019/4/4 20:30--22:30</t>
-  </si>
-  <si>
     <t>安装数据库</t>
-  </si>
-  <si>
-    <t>尝试数据库的远程连接</t>
   </si>
   <si>
     <r>
@@ -319,12 +285,28 @@
     <t>添加测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2019/5/28 10:30--12:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service层测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/5/29 18:30--20:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web层，写文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,13 +323,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -672,18 +647,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -703,623 +677,339 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.44140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="37.44140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="45.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="56.77734375" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="33.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:B42"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.21875" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>89</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/doc/小组log日志/201708044118yyb.xlsx
+++ b/doc/小组log日志/201708044118yyb.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA\workspace\doc\小组log日志\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DD83EC-806B-4102-B65D-BD134FF45B05}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528EDB63-D8F2-4154-A567-4EA3B2E65C80}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="87">
   <si>
     <t>日期时间</t>
   </si>
@@ -299,6 +299,14 @@
   </si>
   <si>
     <t>web层，写文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/6/1 14:00--20:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看书 JS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -648,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1012,6 +1020,14 @@
         <v>84</v>
       </c>
     </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/doc/小组log日志/201708044118yyb.xlsx
+++ b/doc/小组log日志/201708044118yyb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA\workspace\doc\小组log日志\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528EDB63-D8F2-4154-A567-4EA3B2E65C80}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DA195E-977F-4083-95BD-7EA163F0ABE9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="杨亚斌" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="94">
   <si>
     <t>日期时间</t>
   </si>
@@ -307,6 +307,34 @@
   </si>
   <si>
     <t>看书 JS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/6/2 08:30--11:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/6/4 14:30--15:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/6/6 16:00--18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/6/8 13:00--15:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web层整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从数据库读出数据（未完…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从数据库读出数据(可以读出）显示在页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -656,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1028,6 +1056,38 @@
         <v>86</v>
       </c>
     </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/doc/小组log日志/201708044118yyb.xlsx
+++ b/doc/小组log日志/201708044118yyb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA\workspace\doc\小组log日志\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DA195E-977F-4083-95BD-7EA163F0ABE9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02953AD-FC07-4C40-A05D-356D46D6A65D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="96">
   <si>
     <t>日期时间</t>
   </si>
@@ -335,6 +335,14 @@
   </si>
   <si>
     <t>从数据库读出数据(可以读出）显示在页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/6/9 13:30--16:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习计算机组成原理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -684,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1088,6 +1096,14 @@
         <v>93</v>
       </c>
     </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/doc/小组log日志/201708044118yyb.xlsx
+++ b/doc/小组log日志/201708044118yyb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA\workspace\doc\小组log日志\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02953AD-FC07-4C40-A05D-356D46D6A65D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B417E06-F36A-483B-A5A3-1A3842916B88}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="100">
   <si>
     <t>日期时间</t>
   </si>
@@ -343,6 +343,22 @@
   </si>
   <si>
     <t>学习计算机组成原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/6/10 08:30--12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/6/11 18:30--20:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小组讨论业务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写clicen页面(未完…)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -692,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1104,6 +1120,22 @@
         <v>95</v>
       </c>
     </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/doc/小组log日志/201708044118yyb.xlsx
+++ b/doc/小组log日志/201708044118yyb.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA\workspace\doc\小组log日志\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA\workspace\J-learning\doc\小组log日志\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B417E06-F36A-483B-A5A3-1A3842916B88}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF942E1-3F3F-4BC2-8058-03F99CCB02E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="122">
   <si>
     <t>日期时间</t>
   </si>
@@ -359,6 +359,94 @@
   </si>
   <si>
     <t>写clicen页面(未完…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/6/12 14:30--16:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">clicen完成 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/6/13 18:30--20:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/6/14 17:30--20:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加删除功能JSP页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加修改功能jsp页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/6/16 13:30--15:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重写页面VUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/6/17 14:30--17:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整web层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/6/18 10:00--12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重写service层接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/6/19 8:30--12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用WBESTORM搭建页面成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/6/20 8:30--12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面显示数据库信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/6/21 8:30--12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善页面（可以添加信息）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/6/22 8:30--12:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善页面（可以删除信息）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善页面（可以修改信息）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/6/23 8:30--12:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -708,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1136,6 +1224,94 @@
         <v>99</v>
       </c>
     </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
